--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3888.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3888.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3888</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Joseph Charles Buttler</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3383</t>
+          <t>3383</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -595,7 +660,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>27/01/2013</t>
@@ -603,7 +667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -655,7 +719,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -695,7 +759,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>20/02/2013</t>
@@ -703,7 +766,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -755,7 +818,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -807,7 +870,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -859,7 +922,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -911,7 +974,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -963,7 +1026,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1015,7 +1078,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1067,7 +1130,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1107,7 +1170,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>19/06/2013</t>
@@ -1115,7 +1177,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3517</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1167,7 +1229,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1207,7 +1269,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>03/09/2013</t>
@@ -1215,7 +1276,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3551</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1267,7 +1328,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3555</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1307,7 +1368,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>11/09/2013</t>
@@ -1315,7 +1375,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3557</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1367,7 +1427,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3558</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1419,7 +1479,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3559</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1471,7 +1531,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1523,7 +1583,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1575,7 +1635,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1627,7 +1687,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1679,7 +1739,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1731,7 +1791,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1783,7 +1843,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1835,7 +1895,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1887,7 +1947,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1939,7 +1999,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1991,7 +2051,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3639</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2031,7 +2091,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>28/05/2014</t>
@@ -2039,7 +2098,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3640</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2091,7 +2150,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3641</t>
+          <t>3641</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2143,7 +2202,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3642</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2195,7 +2254,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2247,7 +2306,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2299,7 +2358,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2351,7 +2410,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2403,7 +2462,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2455,7 +2514,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2507,7 +2566,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2559,7 +2618,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2611,7 +2670,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2663,7 +2722,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2715,7 +2774,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2767,7 +2826,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2807,7 +2866,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -2815,7 +2873,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2867,7 +2925,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2919,7 +2977,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2971,7 +3029,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3023,7 +3081,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3075,7 +3133,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3127,7 +3185,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3179,7 +3237,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3231,7 +3289,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3271,7 +3329,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -3279,7 +3336,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3331,7 +3388,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3383,7 +3440,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3435,7 +3492,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3475,7 +3532,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>17/06/2015</t>
@@ -3483,7 +3539,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3535,7 +3591,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3830</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3587,7 +3643,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3831</t>
+          <t>3831</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3639,7 +3695,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3691,7 +3747,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3743,7 +3799,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3795,7 +3851,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3847,7 +3903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3899,7 +3955,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3951,7 +4007,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4003,7 +4059,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4055,7 +4111,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4107,7 +4163,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4147,7 +4203,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -4155,7 +4210,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4195,7 +4250,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -4203,7 +4257,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4255,7 +4309,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4307,7 +4361,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4347,7 +4401,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -4355,7 +4408,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4407,7 +4460,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4459,7 +4512,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4511,7 +4564,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3946</t>
+          <t>3946</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4563,7 +4616,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3948</t>
+          <t>3948</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4615,7 +4668,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3949</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4667,7 +4720,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4719,7 +4772,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4771,7 +4824,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4823,7 +4876,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4875,7 +4928,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4927,7 +4980,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4979,7 +5032,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5031,7 +5084,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5083,7 +5136,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5123,7 +5176,6 @@
           <t>91</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -5131,7 +5183,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5183,7 +5235,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5235,7 +5287,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5287,7 +5339,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5327,7 +5379,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>19/09/2017</t>
@@ -5335,7 +5386,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5375,7 +5426,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -5383,7 +5433,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5435,7 +5485,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5487,7 +5537,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5527,7 +5577,6 @@
           <t>99</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -5535,7 +5584,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5587,7 +5636,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5639,7 +5688,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5691,7 +5740,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5743,7 +5792,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5795,7 +5844,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5847,7 +5896,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5899,7 +5948,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5951,7 +6000,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6003,7 +6052,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6043,7 +6092,6 @@
           <t>109</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -6051,7 +6099,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6103,7 +6151,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6155,7 +6203,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6207,7 +6255,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6259,7 +6307,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6311,7 +6359,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6363,7 +6411,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6415,7 +6463,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6455,7 +6503,6 @@
           <t>117</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -6463,7 +6510,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6503,7 +6550,6 @@
           <t>118</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -6511,7 +6557,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6563,7 +6609,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6603,7 +6649,6 @@
           <t>120</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -6611,7 +6656,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6651,7 +6696,6 @@
           <t>121</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -6659,7 +6703,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6711,7 +6755,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6763,7 +6807,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6815,7 +6859,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6855,7 +6899,6 @@
           <t>125</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -6863,7 +6906,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6915,7 +6958,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6967,7 +7010,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7007,7 +7050,6 @@
           <t>128</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -7015,7 +7057,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7067,7 +7109,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7119,7 +7161,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7171,7 +7213,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7223,7 +7265,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7275,7 +7317,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7327,7 +7369,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7367,7 +7409,6 @@
           <t>135</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -7375,7 +7416,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7427,7 +7468,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7479,7 +7520,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7531,7 +7572,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7583,7 +7624,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7635,7 +7676,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7675,7 +7716,6 @@
           <t>141</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -7683,7 +7723,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7735,7 +7775,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7787,7 +7827,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7839,7 +7879,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7891,7 +7931,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7943,7 +7983,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4454</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7995,7 +8035,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4456</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8047,7 +8087,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4457</t>
+          <t>4457</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8099,7 +8139,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4598</t>
+          <t>4598</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8139,7 +8179,6 @@
           <t>150</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -8147,7 +8186,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4599</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8199,7 +8238,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4602</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8251,7 +8290,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8303,7 +8342,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8355,7 +8394,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8407,7 +8446,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8459,7 +8498,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8499,7 +8538,6 @@
           <t>157</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -8507,7 +8545,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8559,7 +8597,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4660</t>
+          <t>4660</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8611,7 +8649,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4666</t>
+          <t>4666</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8663,7 +8701,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4698</t>
+          <t>4698</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8715,7 +8753,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4699</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8767,7 +8805,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4700</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8819,7 +8857,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4711</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8871,7 +8909,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4713</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8923,7 +8961,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4717</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8954,6 +8992,559 @@
       <c r="J166" t="inlineStr">
         <is>
           <t>24</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4454</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4456</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4457</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.66%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4598</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4599</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4602</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.68%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.27%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.63%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.17%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9.45%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4698</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>13.28%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4699</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.49%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4700</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.86%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4711</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.25%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.31%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4717</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13.27%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3888.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3888.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F158" t="inlineStr">

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3888.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3888.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -660,6 +659,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>27/01/2013</t>
@@ -759,6 +759,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>20/02/2013</t>
@@ -1170,6 +1171,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>19/06/2013</t>
@@ -1269,6 +1271,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>03/09/2013</t>
@@ -1368,6 +1371,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>11/09/2013</t>
@@ -2091,6 +2095,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>28/05/2014</t>
@@ -2866,6 +2871,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -3329,6 +3335,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -3532,6 +3539,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>17/06/2015</t>
@@ -4203,6 +4211,7 @@
           <t>72</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -4250,6 +4259,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>26/06/2016</t>
@@ -4401,6 +4411,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>24/08/2016</t>
@@ -5176,6 +5187,7 @@
           <t>91</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
         <is>
           <t>01/06/2017</t>
@@ -5379,6 +5391,7 @@
           <t>95</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>19/09/2017</t>
@@ -5426,6 +5439,7 @@
           <t>96</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -5577,6 +5591,7 @@
           <t>99</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr">
         <is>
           <t>29/09/2017</t>
@@ -6092,6 +6107,7 @@
           <t>109</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>10/03/2018</t>
@@ -6503,6 +6519,7 @@
           <t>117</t>
         </is>
       </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr">
         <is>
           <t>17/07/2018</t>
@@ -6550,6 +6567,7 @@
           <t>118</t>
         </is>
       </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>10/10/2018</t>
@@ -6649,6 +6667,7 @@
           <t>120</t>
         </is>
       </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
           <t>17/10/2018</t>
@@ -6696,6 +6715,7 @@
           <t>121</t>
         </is>
       </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>20/10/2018</t>
@@ -6899,6 +6919,7 @@
           <t>125</t>
         </is>
       </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -7050,6 +7071,7 @@
           <t>128</t>
         </is>
       </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -7409,6 +7431,7 @@
           <t>135</t>
         </is>
       </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
         <is>
           <t>14/06/2019</t>
@@ -7716,6 +7739,7 @@
           <t>141</t>
         </is>
       </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>11/07/2019</t>
@@ -8179,6 +8203,7 @@
           <t>150</t>
         </is>
       </c>
+      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -8538,6 +8563,7 @@
           <t>157</t>
         </is>
       </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -8992,559 +9018,6 @@
       <c r="J166" t="inlineStr">
         <is>
           <t>24</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4454</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.80%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4456</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4457</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.66%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4598</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4599</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4602</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>34.68%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>27.27%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.63%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>23.17%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9.45%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4660</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4666</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4698</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>13.28%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4699</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>27.49%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>37.86%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4711</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.25%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4713</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>23.31%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4717</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>13.27%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
         </is>
       </c>
     </row>
